--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/88.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/88.xlsx
@@ -479,13 +479,13 @@
         <v>-0.08505651826178526</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.613850168645808</v>
+        <v>-2.614131951998465</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2012387908910384</v>
+        <v>-0.2000043114413003</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1326238585920508</v>
+        <v>0.1386846403568963</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06859495302903397</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.730151063129481</v>
+        <v>-2.730931151675041</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2965395065535992</v>
+        <v>-0.2967956732378333</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1644391508532597</v>
+        <v>0.1705865413542034</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.04468185580881386</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.92812948503987</v>
+        <v>-2.933036906804985</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4075218927360293</v>
+        <v>-0.4106593246972213</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1665635045703732</v>
+        <v>0.1705353080173566</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.01581764926799591</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.078505427892104</v>
+        <v>-3.085523480159105</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4788582150884821</v>
+        <v>-0.4825567740722824</v>
       </c>
       <c r="G5" t="n">
-        <v>0.223253801712075</v>
+        <v>0.2292401731543572</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.01583684548985993</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.245307754410516</v>
+        <v>-3.259750066115234</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5101721525534042</v>
+        <v>-0.5181041709545127</v>
       </c>
       <c r="G6" t="n">
-        <v>0.221513088100636</v>
+        <v>0.2287040528794956</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.04874495350254324</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.019149777393013</v>
+        <v>-3.039773025235895</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5558149564771684</v>
+        <v>-0.5606223512512966</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2312419328154443</v>
+        <v>0.2376326816664104</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.08190278099342151</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.700516847208323</v>
+        <v>-2.719418898901422</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5795823454086867</v>
+        <v>-0.5823227190093158</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2490333189561851</v>
+        <v>0.2550642146078699</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1150288184962245</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.276121231992812</v>
+        <v>-2.291019764363737</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.6218718054516901</v>
+        <v>-0.6239467555939869</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2444997785659168</v>
+        <v>0.2499847952119121</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1508487373674766</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.872071350712264</v>
+        <v>-1.882646155405722</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6961156196702009</v>
+        <v>-0.7039848162416044</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2862079842039793</v>
+        <v>0.2892362403640334</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1913269276444134</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.305029927301625</v>
+        <v>-1.308909632726419</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8330733076339772</v>
+        <v>-0.8469801089845098</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3154512409713416</v>
+        <v>0.319505383709686</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.2387227561856736</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7637942477241957</v>
+        <v>-0.770668663671823</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.104755763963956</v>
+        <v>-1.124567817306763</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3510553604765095</v>
+        <v>0.3548051527971566</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2945256695512192</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1579813867340359</v>
+        <v>-0.1526988637527209</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.46476266325585</v>
+        <v>-1.49481284507855</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4111545042805562</v>
+        <v>0.4196012957328401</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3592250419230385</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5126514040982005</v>
+        <v>0.5177314334148351</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.807444155804039</v>
+        <v>-1.838311021412905</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5285874115402738</v>
+        <v>0.5360833366575074</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4346940922368096</v>
       </c>
       <c r="E15" t="n">
-        <v>1.098946193511746</v>
+        <v>1.106870892864733</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.154011452983791</v>
+        <v>-2.186808717534564</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6194826701546834</v>
+        <v>0.6276110830137047</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5201879652545542</v>
       </c>
       <c r="E16" t="n">
-        <v>1.705317741841807</v>
+        <v>1.715813866767964</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.551858440981812</v>
+        <v>-2.591019007953097</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7230148752706359</v>
+        <v>0.7342977978697982</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6154245766056246</v>
       </c>
       <c r="E17" t="n">
-        <v>2.238934292325299</v>
+        <v>2.249448104951082</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.803672731266722</v>
+        <v>-2.843753058618544</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8466262789858113</v>
+        <v>0.861498584767636</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7217841371704899</v>
       </c>
       <c r="E18" t="n">
-        <v>2.674218821382792</v>
+        <v>2.683178556124221</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.047365012859717</v>
+        <v>-3.086662507022933</v>
       </c>
       <c r="G18" t="n">
-        <v>0.984897736087303</v>
+        <v>1.001875488045262</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8384947385600894</v>
       </c>
       <c r="E19" t="n">
-        <v>3.024401118413629</v>
+        <v>3.031737244313555</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.24975407614401</v>
+        <v>-3.290690122205309</v>
       </c>
       <c r="G19" t="n">
-        <v>1.091674109282879</v>
+        <v>1.105036861389752</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.96401390435597</v>
       </c>
       <c r="E20" t="n">
-        <v>3.404750092116425</v>
+        <v>3.411183535414764</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.484227711668296</v>
+        <v>-3.5256016807755</v>
       </c>
       <c r="G20" t="n">
-        <v>1.191795028053779</v>
+        <v>1.204755232513999</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.092956424263255</v>
       </c>
       <c r="E21" t="n">
-        <v>3.716323190467757</v>
+        <v>3.723737386214306</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.639698321933406</v>
+        <v>-3.677635997947812</v>
       </c>
       <c r="G21" t="n">
-        <v>1.354011361003723</v>
+        <v>1.36485636055698</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.218293795223923</v>
       </c>
       <c r="E22" t="n">
-        <v>3.936754622251272</v>
+        <v>3.942674512339789</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.787275643760381</v>
+        <v>-3.823264928172915</v>
       </c>
       <c r="G22" t="n">
-        <v>1.43696972185161</v>
+        <v>1.447456088046939</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.334307917641751</v>
       </c>
       <c r="E23" t="n">
-        <v>4.152020025902732</v>
+        <v>4.155197712628589</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.940981448547321</v>
+        <v>-3.975895747767087</v>
       </c>
       <c r="G23" t="n">
-        <v>1.535916543319771</v>
+        <v>1.546284584903811</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.434315421973818</v>
       </c>
       <c r="E24" t="n">
-        <v>4.281924591160593</v>
+        <v>4.285237680276689</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.062040944150983</v>
+        <v>-4.092583941880495</v>
       </c>
       <c r="G24" t="n">
-        <v>1.605907380659317</v>
+        <v>1.614887242783079</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.514886466650778</v>
       </c>
       <c r="E25" t="n">
-        <v>4.394009713926584</v>
+        <v>4.393113130531765</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.042855279343195</v>
+        <v>-4.069582918279311</v>
       </c>
       <c r="G25" t="n">
-        <v>1.618399166039795</v>
+        <v>1.622268502813084</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.572585939316334</v>
       </c>
       <c r="E26" t="n">
-        <v>4.386599177704095</v>
+        <v>4.385689176054387</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.947077300751079</v>
+        <v>-3.964474678134641</v>
       </c>
       <c r="G26" t="n">
-        <v>1.593884014358583</v>
+        <v>1.593737633396163</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.605631441993363</v>
       </c>
       <c r="E27" t="n">
-        <v>4.500187145017593</v>
+        <v>4.496742313035321</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.88180206512381</v>
+        <v>-3.897254405469222</v>
       </c>
       <c r="G27" t="n">
-        <v>1.513774592991786</v>
+        <v>1.514230813657994</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.613911688834443</v>
       </c>
       <c r="E28" t="n">
-        <v>4.40621300682696</v>
+        <v>4.405750686953985</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.755764396956531</v>
+        <v>-3.764702784474274</v>
       </c>
       <c r="G28" t="n">
-        <v>1.464368578492486</v>
+        <v>1.461804471967437</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.597880188518028</v>
       </c>
       <c r="E29" t="n">
-        <v>4.316127722871271</v>
+        <v>4.318907741315889</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.701556172008856</v>
+        <v>-3.711319782202239</v>
       </c>
       <c r="G29" t="n">
-        <v>1.402357333366835</v>
+        <v>1.397171787773123</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.559430380314971</v>
       </c>
       <c r="E30" t="n">
-        <v>4.139902121897101</v>
+        <v>4.142517461758997</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.559132374940063</v>
+        <v>-3.568355595413847</v>
       </c>
       <c r="G30" t="n">
-        <v>1.325954399952636</v>
+        <v>1.31839138356096</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.500846457971635</v>
       </c>
       <c r="E31" t="n">
-        <v>3.890131065879297</v>
+        <v>3.888513556244561</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.462884757426851</v>
+        <v>-3.470835988329277</v>
       </c>
       <c r="G31" t="n">
-        <v>1.245294830135412</v>
+        <v>1.238299039973112</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.425605617043493</v>
       </c>
       <c r="E32" t="n">
-        <v>3.658361208715035</v>
+        <v>3.656757117335188</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.368512645994639</v>
+        <v>-3.375683178430827</v>
       </c>
       <c r="G32" t="n">
-        <v>1.18625267886417</v>
+        <v>1.175739476159063</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.338303182606449</v>
       </c>
       <c r="E33" t="n">
-        <v>3.441751539892023</v>
+        <v>3.44380209320725</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.250784537127375</v>
+        <v>-3.254679795529427</v>
       </c>
       <c r="G33" t="n">
-        <v>1.072207271043111</v>
+        <v>1.065454839230833</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.243449270762897</v>
       </c>
       <c r="E34" t="n">
-        <v>3.148679775349167</v>
+        <v>3.15307364390446</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.056880690298001</v>
+        <v>-3.062079349186264</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9942270827588414</v>
+        <v>0.9894221276674202</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.14609086798387</v>
       </c>
       <c r="E35" t="n">
-        <v>2.803519565170673</v>
+        <v>2.803650088195498</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.969110055310572</v>
+        <v>-2.976064675827192</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9462281552607994</v>
+        <v>0.9401057715076024</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.049623790036801</v>
       </c>
       <c r="E36" t="n">
-        <v>2.480070091401704</v>
+        <v>2.478584324633146</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.863562672278644</v>
+        <v>-2.87194908158393</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8601915247573649</v>
+        <v>0.8563972082273152</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9571263689990718</v>
       </c>
       <c r="E37" t="n">
-        <v>2.166330554806564</v>
+        <v>2.165287590449324</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.808624067320562</v>
+        <v>-2.820867005064926</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8037488554104228</v>
+        <v>0.8014726314447991</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8702679328324389</v>
       </c>
       <c r="E38" t="n">
-        <v>1.915716588413493</v>
+        <v>1.914648007387831</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.711767444011618</v>
+        <v>-2.72215561297799</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8088050978206642</v>
+        <v>0.8092753466624371</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7890915939440515</v>
       </c>
       <c r="E39" t="n">
-        <v>1.623860395779396</v>
+        <v>1.622613717916124</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.549507806693625</v>
+        <v>-2.560025278843468</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7114007657439995</v>
+        <v>0.7117093856064339</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.7149653650004244</v>
       </c>
       <c r="E40" t="n">
-        <v>1.385168548854721</v>
+        <v>1.382882566158269</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.456480875313981</v>
+        <v>-2.467557034803725</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6436593158602996</v>
+        <v>0.6452341310476631</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6468509330268286</v>
       </c>
       <c r="E41" t="n">
-        <v>1.102828338619247</v>
+        <v>1.10022824677427</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.345707082002999</v>
+        <v>-2.358153123332719</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6034923797723795</v>
+        <v>0.607158612960312</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5849438344744464</v>
       </c>
       <c r="E42" t="n">
-        <v>0.8308683683813485</v>
+        <v>0.8268471613595486</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.212221062531272</v>
+        <v>-2.224269435579753</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5741216495835768</v>
+        <v>0.578033070883562</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5291959041949523</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6749952104695846</v>
+        <v>0.6692363394397294</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.078706986708415</v>
+        <v>-2.090445520053108</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4951564394063592</v>
+        <v>0.4992063126999663</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4785022600344727</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4927582313053859</v>
+        <v>0.4856794919310479</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.998822016150661</v>
+        <v>-2.007717709221032</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4316045346512418</v>
+        <v>0.4350274094891519</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.4337565269958302</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4203551576893007</v>
+        <v>0.4133081341901536</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.89724582664504</v>
+        <v>-1.905021705352901</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3870894740587848</v>
+        <v>0.390405612778264</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3942376803054575</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2057015044766194</v>
+        <v>0.2006708787348014</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.838964246457703</v>
+        <v>-1.845795967957957</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2937972271847554</v>
+        <v>0.2968590289820306</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.3594698693993438</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06063980048089151</v>
+        <v>0.05249613960495145</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.742193621964179</v>
+        <v>-1.748392245801969</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2641880180113441</v>
+        <v>0.2659372705122576</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3290668212749917</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004461836707658142</v>
+        <v>-0.0005120664112222708</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.725346393031044</v>
+        <v>-1.730562434658593</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2283246822185583</v>
+        <v>0.2301800609172259</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3011885064747254</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08328135184931747</v>
+        <v>-0.08891945858517653</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.640391151887484</v>
+        <v>-1.64343404614378</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2021871415371971</v>
+        <v>0.2016741982480519</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2752515684882192</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1847691028568106</v>
+        <v>-0.1891898079218805</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.618063175753091</v>
+        <v>-1.619589807206991</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1479883703600111</v>
+        <v>0.1487056370758668</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2500767380730745</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.273113063280383</v>
+        <v>-0.2788646152621172</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.619604445303233</v>
+        <v>-1.621739167671851</v>
       </c>
       <c r="G51" t="n">
-        <v>0.09718136806622116</v>
+        <v>0.09616585013943564</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.224677582057701</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3528296957313542</v>
+        <v>-0.3562574499346783</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.597675357291434</v>
+        <v>-1.598893368882899</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0555262255270358</v>
+        <v>0.05441799965738458</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1992507773034364</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4623927964989916</v>
+        <v>-0.4659809598403004</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.544907460021898</v>
+        <v>-1.546348092660377</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03926817996763957</v>
+        <v>0.039758556191745</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1733690251340038</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5282062871234908</v>
+        <v>-0.5321982179528069</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.564410893502271</v>
+        <v>-1.566075976949793</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0008047523298767863</v>
+        <v>0.001032252742303812</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1473571726850338</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5638463919485868</v>
+        <v>-0.567145452889117</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.521701808033665</v>
+        <v>-1.522725864849925</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03817710788312184</v>
+        <v>-0.03741287727515653</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1215838516306977</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6270280748529181</v>
+        <v>-0.633293789965151</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.520470988107988</v>
+        <v>-1.52426469471736</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08225851487441098</v>
+        <v>-0.08296785262146897</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.09591146313789073</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7035048086690036</v>
+        <v>-0.7085201863939029</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.583463595602527</v>
+        <v>-1.587103602201359</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1041943120136549</v>
+        <v>-0.1048554660272498</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.07093724929597281</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7698422211548294</v>
+        <v>-0.7750149584143297</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.598342610511796</v>
+        <v>-1.603679416433341</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1309527519439457</v>
+        <v>-0.130453226909689</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.04678992644439452</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.9055855570512004</v>
+        <v>-0.9170624344255686</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.59849936012572</v>
+        <v>-1.601936873059872</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1337291108645028</v>
+        <v>-0.1352185371571216</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.02369784326336338</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.024642683073098</v>
+        <v>-1.035019263546613</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.626451414820407</v>
+        <v>-1.631924233052867</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1621007909847922</v>
+        <v>-0.1624545449773061</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.001980592699283092</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.14383399164388</v>
+        <v>-1.154639956273826</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.669609401907099</v>
+        <v>-1.677684141746567</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1784393460735192</v>
+        <v>-0.1770847122504618</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01856245945684612</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.222543035136864</v>
+        <v>-1.235067756233885</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.616235243484877</v>
+        <v>-1.623817167417532</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2106413280437864</v>
+        <v>-0.2083096012965786</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03781663707027947</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.266622612366123</v>
+        <v>-1.281105788756182</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.712167836968549</v>
+        <v>-1.72141606419008</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2313182489062224</v>
+        <v>-0.2291463213763225</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.05624177495146536</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.360663841831199</v>
+        <v>-1.376948723900372</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.772917156214009</v>
+        <v>-1.783618214487553</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2398797054457348</v>
+        <v>-0.2366825012582215</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.07382789678452086</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.383520619192332</v>
+        <v>-1.3989400238212</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.845290343716933</v>
+        <v>-1.858257867225274</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2613342751710245</v>
+        <v>-0.2583444440136056</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.09022145885494252</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.429271379075881</v>
+        <v>-1.44377529276895</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.920664340949458</v>
+        <v>-1.933161005695349</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2949945774793963</v>
+        <v>-0.2904177327210789</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1052413059154177</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.458834844198536</v>
+        <v>-1.475184987780121</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.017844832137757</v>
+        <v>-2.033788158627951</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.326525036784564</v>
+        <v>-0.3227295004131608</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1183945418185243</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.478768881676693</v>
+        <v>-1.493828433106279</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.118115181474461</v>
+        <v>-2.137480772881888</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3725380625591142</v>
+        <v>-0.368674824992592</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1294014535475788</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.467745785285825</v>
+        <v>-1.484405158650521</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.255541898438656</v>
+        <v>-2.27390661001554</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3557268189459075</v>
+        <v>-0.3508895380586186</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1379056015499388</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.456472621417491</v>
+        <v>-1.472071952645999</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.357129676437136</v>
+        <v>-2.378987403729756</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3998271334781758</v>
+        <v>-0.3942231823002146</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1432086988703869</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.543325325786414</v>
+        <v>-1.559106413376593</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.459160866767612</v>
+        <v>-2.481632174261041</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4342400779016548</v>
+        <v>-0.4291673676331411</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1448974899335516</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.5616034286272</v>
+        <v>-1.58146366570347</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.586302491359805</v>
+        <v>-2.609425804056677</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.432019356717615</v>
+        <v>-0.4273522436991389</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1430370633743677</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.535783046697748</v>
+        <v>-1.55736082039974</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.709902916502799</v>
+        <v>-2.736659526671059</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4756963863002202</v>
+        <v>-0.4728376880883021</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1382350757533826</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.473235071376557</v>
+        <v>-1.494169988685258</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.793135741655222</v>
+        <v>-2.821888622198479</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5101404366782133</v>
+        <v>-0.5095451540977072</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.13108590290449</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.454041477599973</v>
+        <v>-1.47178102048319</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.908431486863615</v>
+        <v>-2.938312110738179</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5232122566222777</v>
+        <v>-0.5226011161041761</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1219249563440112</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.329295011505369</v>
+        <v>-1.348526420363912</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.94514078263505</v>
+        <v>-2.975582838492561</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4927942926314985</v>
+        <v>-0.4914262405535527</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1109884477655808</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.213263701960819</v>
+        <v>-1.233824737894673</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.983488630304569</v>
+        <v>-3.016954672877397</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.505836836383079</v>
+        <v>-0.5056495907353173</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.09827860922983769</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.020030462915529</v>
+        <v>-1.040190171044083</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.00078872534019</v>
+        <v>-3.035186116786412</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4960591980141309</v>
+        <v>-0.4983043160252405</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08360576131817457</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8088844635148261</v>
+        <v>-0.8291137026005289</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.056218011482715</v>
+        <v>-3.092797089189664</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5021291285891276</v>
+        <v>-0.5040906334855493</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06645983237905506</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.620230508910561</v>
+        <v>-0.6438588359277808</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.098366884809728</v>
+        <v>-3.13520243416125</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4551835340998295</v>
+        <v>-0.4566985770608717</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.04642904513804315</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3264896613853125</v>
+        <v>-0.3494848907400678</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.138851589570233</v>
+        <v>-3.176427582623328</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4013745022350856</v>
+        <v>-0.4024022185754061</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.02287260401534651</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.02471249902323171</v>
+        <v>-0.04967045311576224</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.104734456674977</v>
+        <v>-3.139923830119956</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.323046049244393</v>
+        <v>-0.324951441438554</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.004303768697791529</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1966008780588616</v>
+        <v>0.1705395774620938</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.129817444506241</v>
+        <v>-3.162889173361551</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.267073018818547</v>
+        <v>-0.2679244680832873</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.03428362832212006</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5067559108367538</v>
+        <v>0.4814722591028398</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.027516669236643</v>
+        <v>-3.05807003561766</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2139422187463469</v>
+        <v>-0.214786958883643</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.06526713014280018</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7225915903209728</v>
+        <v>0.6980678997502868</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.944935239366986</v>
+        <v>-2.970207302608042</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1746968728009931</v>
+        <v>-0.1739015362385137</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.09426037238233546</v>
       </c>
       <c r="E86" t="n">
-        <v>1.036952026165043</v>
+        <v>1.01517175879837</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.897161982519341</v>
+        <v>-2.923760013311647</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1651815003230467</v>
+        <v>-0.1653974122426155</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.117846602862981</v>
       </c>
       <c r="E87" t="n">
-        <v>1.244890452726728</v>
+        <v>1.224087278284205</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.795480886657319</v>
+        <v>-2.817883273114275</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1471876205176255</v>
+        <v>-0.1485172475929362</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1319358807575091</v>
       </c>
       <c r="E88" t="n">
-        <v>1.400422055059513</v>
+        <v>1.379273055593274</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.638660521934565</v>
+        <v>-2.661248934197929</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1137432301288225</v>
+        <v>-0.1125490054437498</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1331967998617759</v>
       </c>
       <c r="E89" t="n">
-        <v>1.477914306802384</v>
+        <v>1.461490972739589</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.397266726411896</v>
+        <v>-2.420740743497898</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.106598009400719</v>
+        <v>-0.1079453241756554</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1196139816310018</v>
       </c>
       <c r="E90" t="n">
-        <v>1.545540481678178</v>
+        <v>1.529653877810922</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.142951151431641</v>
+        <v>-2.161739147958189</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.09619886186216459</v>
+        <v>-0.09875991878382968</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.09125487891617437</v>
       </c>
       <c r="E91" t="n">
-        <v>1.561115416079617</v>
+        <v>1.547864889377265</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.773197109804636</v>
+        <v>-1.790066905802811</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08532336627506998</v>
+        <v>-0.08740624538616459</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.05000717333298035</v>
       </c>
       <c r="E92" t="n">
-        <v>1.576501275071263</v>
+        <v>1.565547709637545</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.480595594103553</v>
+        <v>-1.493499685861512</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.05976403039526586</v>
+        <v>-0.06209453730112018</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.0003836407333179315</v>
       </c>
       <c r="E93" t="n">
-        <v>1.573483387562714</v>
+        <v>1.561213613308573</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.133031076617319</v>
+        <v>-1.145254496900026</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0319870229348058</v>
+        <v>-0.0340455052188305</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05564547886035675</v>
       </c>
       <c r="E94" t="n">
-        <v>1.562912852313993</v>
+        <v>1.552283154759628</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.818100974861166</v>
+        <v>-0.827351031844727</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.05686568733935909</v>
+        <v>-0.05836243268009882</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1113096020960673</v>
       </c>
       <c r="E95" t="n">
-        <v>1.491241073589329</v>
+        <v>1.477147026591035</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5925120538350688</v>
+        <v>-0.6023854497502663</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1277451791049276</v>
+        <v>-0.1297640165449637</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1620213724117519</v>
       </c>
       <c r="E96" t="n">
-        <v>1.409690409663376</v>
+        <v>1.391459880635377</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3311244486079211</v>
+        <v>-0.3395041487857626</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1855723683880878</v>
+        <v>-0.188164531264267</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2030631309125137</v>
       </c>
       <c r="E97" t="n">
-        <v>1.301032431180033</v>
+        <v>1.284076636366437</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1481476356628269</v>
+        <v>-0.1573214525617945</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2130865000368694</v>
+        <v>-0.2165715867838078</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2326503969463062</v>
       </c>
       <c r="E98" t="n">
-        <v>1.206273934999101</v>
+        <v>1.1895517398047</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.03702984709015875</v>
+        <v>-0.046763571170381</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.2794757557802188</v>
+        <v>-0.2812530646322626</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2497470939497281</v>
       </c>
       <c r="E99" t="n">
-        <v>1.127763725646738</v>
+        <v>1.112000325756184</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1842097295900481</v>
+        <v>0.1788180308075952</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3157995816839493</v>
+        <v>-0.3195823097211408</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2603835252322129</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9569340928997581</v>
+        <v>0.9404759933583885</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2352247148346091</v>
+        <v>0.2324770221858591</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3084055133197326</v>
+        <v>-0.3113910750324144</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2688541164724206</v>
       </c>
       <c r="E101" t="n">
-        <v>0.828254858281483</v>
+        <v>0.810776361447914</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2854815686779724</v>
+        <v>0.2824575819626555</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3633831532011259</v>
+        <v>-0.3651738803080581</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2860338649933255</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6989949791789439</v>
+        <v>0.6835042138308968</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2814310854636885</v>
+        <v>0.2791694995943067</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3400786940632593</v>
+        <v>-0.3429184847341983</v>
       </c>
     </row>
   </sheetData>
